--- a/bots/crawl_ch/output/bread_coop_2023-02-09.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2023-02-09.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -815,7 +815,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -1172,7 +1172,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -1460,7 +1460,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -1748,7 +1748,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -1817,7 +1817,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -1890,7 +1890,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -2032,7 +2032,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -2174,7 +2174,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -2243,7 +2243,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -2385,7 +2385,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -2458,7 +2458,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -2600,7 +2600,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -2742,7 +2742,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -2815,7 +2815,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -2888,7 +2888,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -2961,7 +2961,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Blätterteig ausgewallt 2.40 Schweizer Franken</t>
+          <t>Betty Bossi Naturaplan Bio Blätterteig ausgewallt - Online kein Bestand 2.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -3034,7 +3034,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -3107,7 +3107,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -3180,7 +3180,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -3249,7 +3249,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -3322,7 +3322,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -3391,7 +3391,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -3456,7 +3456,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -3525,7 +3525,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -3598,7 +3598,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -3671,7 +3671,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -3744,7 +3744,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -3813,7 +3813,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -3959,7 +3959,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -4028,7 +4028,7 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -4174,7 +4174,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -4243,7 +4243,7 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -4312,7 +4312,7 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -4385,7 +4385,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -4454,7 +4454,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -4592,7 +4592,7 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -4665,7 +4665,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -4738,7 +4738,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -4811,7 +4811,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -4880,7 +4880,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -4949,7 +4949,7 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -5018,7 +5018,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -5091,7 +5091,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -5164,7 +5164,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -5233,7 +5233,7 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -5302,7 +5302,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -5375,7 +5375,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -5448,7 +5448,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -5517,7 +5517,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -5590,7 +5590,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -5659,7 +5659,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -5732,7 +5732,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -5805,7 +5805,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -5874,7 +5874,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -5947,7 +5947,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -6016,7 +6016,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -6085,7 +6085,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -6154,7 +6154,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -6223,7 +6223,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -6296,7 +6296,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -6365,7 +6365,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -6434,7 +6434,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -6507,7 +6507,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -6576,7 +6576,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -6649,7 +6649,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -6722,31 +6722,31 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>6820609</t>
+          <t>4004924</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Bio Frischback Dinkel Vollkornbrötli</t>
+          <t>Maiswaffeln Quinoa &amp;amp; Amaranth</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/bio-frischback-dinkel-vollkornbroetli/p/6820609</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/maiswaffeln-quinoa-amaranth/p/4004924</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -6755,12 +6755,12 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>1.23/100g</t>
+          <t>1.92/100g</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -6770,7 +6770,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -6780,46 +6780,46 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>Bio Frischback Dinkel Vollkornbrötli 3.70 Schweizer Franken</t>
+          <t>Maiswaffeln Quinoa &amp;amp; Amaranth 2.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['gluten_free']</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>4004924</t>
+          <t>6820609</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Maiswaffeln Quinoa &amp;amp; Amaranth</t>
+          <t>Bio Frischback Dinkel Vollkornbrötli</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/maiswaffeln-quinoa-amaranth/p/4004924</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/bio-frischback-dinkel-vollkornbroetli/p/6820609</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -6828,12 +6828,12 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>1.92/100g</t>
+          <t>1.23/100g</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -6843,7 +6843,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -6853,22 +6853,22 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>Maiswaffeln Quinoa &amp;amp; Amaranth 2.50 Schweizer Franken</t>
+          <t>Bio Frischback Dinkel Vollkornbrötli 3.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>['gluten_free']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -6941,7 +6941,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -7010,7 +7010,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -7079,7 +7079,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -7148,7 +7148,7 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -7217,7 +7217,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -7290,7 +7290,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -7359,7 +7359,7 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -7428,7 +7428,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -7497,7 +7497,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -7566,7 +7566,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -7635,7 +7635,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -7708,7 +7708,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -7781,7 +7781,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -7854,7 +7854,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -7927,45 +7927,45 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>4886668</t>
+          <t>3541890</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Dar-Vida Cracker Nature</t>
+          <t>Betty Bossi Naturaplan Bio Pizzateig rund ausgewallt Ø28cm</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-cracker-nature/p/4886668</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/betty-bossi-naturaplan-bio-pizzateig-rund-ausgewallt-28cm/p/3541890</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="E107" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>1.73/100g</t>
+          <t>1.03/100g</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -7975,7 +7975,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -7985,60 +7985,60 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>Dar-Vida Cracker Nature 3.60 Schweizer Franken</t>
+          <t>Betty Bossi Naturaplan Bio Pizzateig rund ausgewallt Ø28cm 3.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>3541890</t>
+          <t>4886668</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Pizzateig rund ausgewallt Ø28cm</t>
+          <t>Dar-Vida Cracker Nature</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/betty-bossi-naturaplan-bio-pizzateig-rund-ausgewallt-28cm/p/3541890</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-cracker-nature/p/4886668</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="E108" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>1.03/100g</t>
+          <t>1.73/100g</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -8048,7 +8048,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -8058,22 +8058,22 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Pizzateig rund ausgewallt Ø28cm 3.40 Schweizer Franken</t>
+          <t>Dar-Vida Cracker Nature 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -8142,7 +8142,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -8215,7 +8215,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -8284,7 +8284,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -8353,7 +8353,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -8426,7 +8426,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -8499,7 +8499,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -8568,7 +8568,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -8637,7 +8637,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -8710,7 +8710,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -8779,7 +8779,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -8852,7 +8852,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -8921,7 +8921,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -8990,7 +8990,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -9059,7 +9059,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -9128,7 +9128,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -9197,7 +9197,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -9270,7 +9270,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -9343,7 +9343,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -9416,7 +9416,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -9485,7 +9485,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -9554,7 +9554,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -9627,7 +9627,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -9700,7 +9700,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -9773,7 +9773,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -9842,7 +9842,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -9915,7 +9915,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -9984,7 +9984,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -10053,7 +10053,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -10126,7 +10126,7 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -10199,7 +10199,7 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -10268,7 +10268,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -10341,7 +10341,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -10414,7 +10414,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -10487,7 +10487,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -10556,7 +10556,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -10629,7 +10629,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -10698,7 +10698,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -10767,7 +10767,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -10840,7 +10840,7 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -10909,7 +10909,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -10982,45 +10982,45 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>6569371</t>
+          <t>3734986</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Prix Garantie Knusperschnitte</t>
+          <t>Mulino Bianco 5-Kornbrot mit Soja</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/prix-garantie-knusperschnitte/p/6569371</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/mulino-bianco-5-kornbrot-mit-soja/p/3734986</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E150" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Mulino Bianco</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>1.00/100g</t>
+          <t>0.60/100g</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -11030,7 +11030,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -11040,60 +11040,56 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>Prix Garantie Knusperschnitte 1.25 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N150" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Mulino Bianco 5-Kornbrot mit Soja 2.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>3734986</t>
+          <t>6569371</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Mulino Bianco 5-Kornbrot mit Soja</t>
+          <t>Prix Garantie Knusperschnitte</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/mulino-bianco-5-kornbrot-mit-soja/p/3734986</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/prix-garantie-knusperschnitte/p/6569371</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E151" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Mulino Bianco</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>0.60/100g</t>
+          <t>1.00/100g</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -11103,7 +11099,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -11113,18 +11109,22 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot']</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>Mulino Bianco 5-Kornbrot mit Soja 2.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N151" t="inlineStr"/>
+          <t>Prix Garantie Knusperschnitte 1.25 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -11193,45 +11193,45 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>6036925</t>
+          <t>3584194</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig 5-Korn Rund Ausgewallt Ø24cm</t>
+          <t>Fine Food Zuger Kirschtorte</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/buitoni-pizzateig-5-korn-rund-ausgewallt-24cm/p/6036925</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/fine-food-zuger-kirschtorte/p/3584194</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="E153" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Buitoni</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>14.50</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>1.61/100g</t>
+          <t>4.83/100g</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -11241,7 +11241,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -11251,12 +11251,12 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig 5-Korn Rund Ausgewallt Ø24cm 20% ab 2 Aktion 4.50 Schweizer Franken</t>
+          <t>Fine Food Zuger Kirschtorte 14.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N153" t="inlineStr">
@@ -11266,45 +11266,45 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>6825791</t>
+          <t>6036925</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Prix Garantie Proteinbrot</t>
+          <t>Buitoni Pizzateig 5-Korn Rund Ausgewallt Ø24cm</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/prix-garantie-proteinbrot/p/6825791</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/buitoni-pizzateig-5-korn-rund-ausgewallt-24cm/p/6036925</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E154" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Buitoni</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>1.00/100g</t>
+          <t>1.61/100g</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -11314,7 +11314,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -11324,47 +11324,47 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>Prix Garantie Proteinbrot 2.50 Schweizer Franken</t>
+          <t>Buitoni Pizzateig 5-Korn Rund Ausgewallt Ø24cm 20% ab 2 Aktion 4.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>6734419</t>
+          <t>6825791</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Prix Garantie MiniReiswaffeln</t>
+          <t>Prix Garantie Proteinbrot</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/prix-garantie-minireiswaffeln/p/6734419</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/prix-garantie-proteinbrot/p/6825791</t>
         </is>
       </c>
       <c r="D155" t="n">
+        <v>26</v>
+      </c>
+      <c r="E155" t="n">
         <v>2</v>
       </c>
-      <c r="E155" t="n">
-        <v>5</v>
-      </c>
       <c r="F155" t="inlineStr">
         <is>
           <t>Coop</t>
@@ -11372,7 +11372,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -11397,46 +11397,46 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>Prix Garantie MiniReiswaffeln 0.60 Schweizer Franken</t>
+          <t>Prix Garantie Proteinbrot 2.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>['gluten_free']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>3584194</t>
+          <t>6734419</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Fine Food Zuger Kirschtorte</t>
+          <t>Prix Garantie MiniReiswaffeln</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/fine-food-zuger-kirschtorte/p/3584194</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/prix-garantie-minireiswaffeln/p/6734419</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="E156" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -11445,12 +11445,12 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>14.50</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>4.83/100g</t>
+          <t>1.00/100g</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -11460,7 +11460,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -11470,22 +11470,22 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>Fine Food Zuger Kirschtorte 14.50 Schweizer Franken</t>
+          <t>Prix Garantie MiniReiswaffeln 0.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['gluten_free']</t>
         </is>
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -11554,7 +11554,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -11623,7 +11623,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -11692,7 +11692,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -11761,187 +11761,187 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>5719276</t>
+          <t>4314837</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Dar-Vida Cracker Chia &amp;amp; Quinoa</t>
+          <t>Kale Dürüm 30cm 18 Stück</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/dar-vida-cracker-chia-quinoa/p/5719276</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/kale-dueruem-30cm-18-stueck/p/4314837</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E161" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Kale</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>2.15/100g</t>
+          <t>4.39/1kg</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>Dar-Vida Cracker Chia &amp;amp; Quinoa 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N161" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Kale Dürüm 30cm 18 Stück 7.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>4314837</t>
+          <t>4864690</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Kale Dürüm 30cm 18 Stück</t>
+          <t>Leisi Blätterteig -30% Fett rund ausgewallt Ø32cm</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/kale-dueruem-30cm-18-stueck/p/4314837</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-blaetterteig-30-fett-rund-ausgewallt-32cm/p/4864690</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E162" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Kale</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>4.39/1kg</t>
+          <t>1.41/100g</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>Kale Dürüm 30cm 18 Stück 7.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N162" t="inlineStr"/>
+          <t>Leisi Blätterteig -30% Fett rund ausgewallt Ø32cm 20% ab 2 Aktion 3.25 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N162" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>4864690</t>
+          <t>5719276</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig -30% Fett rund ausgewallt Ø32cm</t>
+          <t>Dar-Vida Cracker Chia &amp;amp; Quinoa</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-blaetterteig-30-fett-rund-ausgewallt-32cm/p/4864690</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/dar-vida-cracker-chia-quinoa/p/5719276</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E163" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>1.41/100g</t>
+          <t>2.15/100g</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -11951,7 +11951,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -11961,22 +11961,22 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig -30% Fett rund ausgewallt Ø32cm 20% ab 2 Aktion 3.25 Schweizer Franken</t>
+          <t>Dar-Vida Cracker Chia &amp;amp; Quinoa 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -12049,7 +12049,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -12122,7 +12122,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -12191,7 +12191,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -12260,7 +12260,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -12329,7 +12329,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -12398,31 +12398,31 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>3504615</t>
+          <t>4144505</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Betty Bossi Pastateig 2x16x56cm</t>
+          <t>Pandorino</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/betty-bossi-pastateig-2x16x56cm/p/3504615</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pandorino/p/4144505</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E170" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -12431,12 +12431,12 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>1.12/100g</t>
+          <t>1.78/100g</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -12446,7 +12446,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -12456,42 +12456,42 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>Betty Bossi Pastateig 2x16x56cm 2.80 Schweizer Franken</t>
+          <t>Pandorino 1.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>4144505</t>
+          <t>3504615</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Pandorino</t>
+          <t>Betty Bossi Pastateig 2x16x56cm</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pandorino/p/4144505</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/betty-bossi-pastateig-2x16x56cm/p/3504615</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E171" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -12500,12 +12500,12 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>1.78/100g</t>
+          <t>1.12/100g</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -12515,7 +12515,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -12525,18 +12525,18 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>Pandorino 1.60 Schweizer Franken</t>
+          <t>Betty Bossi Pastateig 2x16x56cm 2.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -12605,7 +12605,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -12674,7 +12674,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -12743,7 +12743,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -12812,7 +12812,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -12885,7 +12885,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -12958,7 +12958,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -13031,7 +13031,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -13104,31 +13104,31 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>3726500</t>
+          <t>6364156</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Pasquier Schokobrötchen 8St</t>
+          <t>Pasquier Pains facon Bretzel</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-schokobroetchen-8st/p/3726500</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/pasquier-pains-facon-bretzel/p/6364156</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E180" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -13137,12 +13137,12 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>1.28/100g</t>
+          <t>1.56/100g</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -13152,7 +13152,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -13162,42 +13162,42 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote']</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>Pasquier Schokobrötchen 8St 4.60 Schweizer Franken</t>
+          <t>Pasquier Pains facon Bretzel 4.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>6364156</t>
+          <t>3726500</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Pasquier Pains facon Bretzel</t>
+          <t>Pasquier Schokobrötchen 8St</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/pasquier-pains-facon-bretzel/p/6364156</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-schokobroetchen-8st/p/3726500</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E181" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -13206,12 +13206,12 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>1.56/100g</t>
+          <t>1.28/100g</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -13221,7 +13221,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -13231,18 +13231,18 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>Pasquier Pains facon Bretzel 4.20 Schweizer Franken</t>
+          <t>Pasquier Schokobrötchen 8St 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -13311,7 +13311,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -13382,45 +13382,45 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>3804246</t>
+          <t>6601630</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Schär Frischback Ciabatta glutenfrei</t>
+          <t>Roland Petite Pause Family Schokolade</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schaer-frischback-ciabatta-glutenfrei/p/3804246</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-mit-schokolade/schokolade-als-zutat/roland-petite-pause-family-schokolade/p/6601630</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E184" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>1.98/100g</t>
+          <t>2.13/100g</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -13430,7 +13430,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -13440,60 +13440,56 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-mit-schokolade', 'schokolade-als-zutat']</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>Schär Frischback Ciabatta glutenfrei 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N184" t="inlineStr">
-        <is>
-          <t>['gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Roland Petite Pause Family Schokolade 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>6601630</t>
+          <t>3804246</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Family Schokolade</t>
+          <t>Schär Frischback Ciabatta glutenfrei</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-mit-schokolade/schokolade-als-zutat/roland-petite-pause-family-schokolade/p/6601630</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schaer-frischback-ciabatta-glutenfrei/p/3804246</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E185" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>2.13/100g</t>
+          <t>1.98/100g</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -13503,7 +13499,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -13513,18 +13509,22 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-mit-schokolade', 'schokolade-als-zutat']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Family Schokolade 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N185" t="inlineStr"/>
+          <t>Schär Frischback Ciabatta glutenfrei 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N185" t="inlineStr">
+        <is>
+          <t>['gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -13593,7 +13593,7 @@
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -13666,7 +13666,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -13735,45 +13735,45 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>3715589</t>
+          <t>6605568</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig rund Extra</t>
+          <t>Prix Garantie Mini Muffins Choco</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/buitoni-pizzateig-rund-extra/p/3715589</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-mini-muffins-choco/p/6605568</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E189" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Buitoni</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>1.17/100g</t>
+          <t>1.20/100g</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -13783,7 +13783,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -13793,60 +13793,56 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig rund Extra 20% ab 2 Aktion 4.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N189" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Mini Muffins Choco 2.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>6605568</t>
+          <t>3715589</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Prix Garantie Mini Muffins Choco</t>
+          <t>Buitoni Pizzateig rund Extra</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-mini-muffins-choco/p/6605568</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/buitoni-pizzateig-rund-extra/p/3715589</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E190" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Buitoni</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>1.20/100g</t>
+          <t>1.17/100g</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -13856,7 +13852,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -13866,18 +13862,22 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>Prix Garantie Mini Muffins Choco 2.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N190" t="inlineStr"/>
+          <t>Buitoni Pizzateig rund Extra 20% ab 2 Aktion 4.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N190" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -13946,7 +13946,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -14015,7 +14015,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -14088,7 +14088,7 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -14157,7 +14157,7 @@
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -14230,7 +14230,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -14299,7 +14299,7 @@
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -14372,7 +14372,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -14441,7 +14441,7 @@
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -14514,7 +14514,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -14587,7 +14587,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -14656,7 +14656,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -14729,7 +14729,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -14796,7 +14796,7 @@
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -14869,7 +14869,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -14938,45 +14938,45 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>6350020</t>
+          <t>7028476</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Karma Mini Cracker Sesam Leinsaat</t>
+          <t>Le Pain des fleurs Bio Kastanie</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-mini-cracker-sesam-leinsaat/p/6350020</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/le-pain-des-fleurs-bio-kastanie/p/7028476</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E206" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Le Pain des fleurs</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>3.47/100g</t>
+          <t>2.90/100g</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -14986,7 +14986,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -14996,60 +14996,60 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>Karma Mini Cracker Sesam Leinsaat 2.95 Schweizer Franken</t>
+          <t>Le Pain des fleurs Bio Kastanie 20% ab 2 Aktion 4.35 Schweizer Franken</t>
         </is>
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
         </is>
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>7028476</t>
+          <t>6350020</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Kastanie</t>
+          <t>Karma Mini Cracker Sesam Leinsaat</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/le-pain-des-fleurs-bio-kastanie/p/7028476</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-mini-cracker-sesam-leinsaat/p/6350020</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E207" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>2.90/100g</t>
+          <t>3.47/100g</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -15059,7 +15059,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -15069,22 +15069,22 @@
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Kastanie 20% ab 2 Aktion 4.35 Schweizer Franken</t>
+          <t>Karma Mini Cracker Sesam Leinsaat 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -15153,7 +15153,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -15222,7 +15222,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -15291,7 +15291,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -15360,7 +15360,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -15429,7 +15429,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -15502,7 +15502,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -15571,45 +15571,45 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>6786544</t>
+          <t>4848822</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Mulino Bianco Nascondini</t>
+          <t>Old El Paso Soft Tortillas Shells 8 Stück</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/mulino-bianco-nascondini/p/6786544</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-soft-tortillas-shells-8-stueck/p/4848822</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="E215" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Mulino Bianco</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>1.06/100g</t>
+          <t>3.08/100g</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
@@ -15619,7 +15619,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -15629,18 +15629,18 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>Mulino Bianco Nascondini 3.50 Schweizer Franken</t>
+          <t>Old El Paso Soft Tortillas Shells 8 Stück 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -15709,45 +15709,45 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>7027777</t>
+          <t>6786544</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Buchweizen</t>
+          <t>Mulino Bianco Nascondini</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/le-pain-des-fleurs-bio-buchweizen/p/7027777</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/mulino-bianco-nascondini/p/6786544</t>
         </is>
       </c>
       <c r="D217" t="n">
         <v>2</v>
       </c>
       <c r="E217" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs</t>
+          <t>Mulino Bianco</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>2.13/100g</t>
+          <t>1.06/100g</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
@@ -15757,7 +15757,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -15767,60 +15767,56 @@
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M217" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Buchweizen 20% ab 2 Aktion 3.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N217" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Mulino Bianco Nascondini 3.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>4848822</t>
+          <t>7027777</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Old El Paso Soft Tortillas Shells 8 Stück</t>
+          <t>Le Pain des fleurs Bio Buchweizen</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-soft-tortillas-shells-8-stueck/p/4848822</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/le-pain-des-fleurs-bio-buchweizen/p/7027777</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="E218" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Le Pain des fleurs</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>3.08/100g</t>
+          <t>2.13/100g</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
@@ -15830,7 +15826,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -15840,18 +15836,22 @@
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t>Old El Paso Soft Tortillas Shells 8 Stück 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N218" t="inlineStr"/>
+          <t>Le Pain des fleurs Bio Buchweizen 20% ab 2 Aktion 3.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N218" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -15924,7 +15924,7 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -15993,45 +15993,45 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>3938007</t>
+          <t>5661142</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>St Michel Madeleines</t>
+          <t>Karma Crunch It Cracker Dinkel &amp;amp; Quinoa</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-madeleines/p/3938007</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-crunch-it-cracker-dinkel-quinoa/p/5661142</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E221" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>2.68/100g</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
@@ -16041,7 +16041,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -16051,56 +16051,60 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>St Michel Madeleines 3.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N221" t="inlineStr"/>
+          <t>Karma Crunch It Cracker Dinkel &amp;amp; Quinoa 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N221" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>5661142</t>
+          <t>3938007</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Karma Crunch It Cracker Dinkel &amp;amp; Quinoa</t>
+          <t>St Michel Madeleines</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-crunch-it-cracker-dinkel-quinoa/p/5661142</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-madeleines/p/3938007</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E222" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>2.68/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -16110,7 +16114,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -16120,22 +16124,18 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>Karma Crunch It Cracker Dinkel &amp;amp; Quinoa 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N222" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>St Michel Madeleines 3.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -16202,45 +16202,45 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>5722124</t>
+          <t>3861388</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm</t>
+          <t>Klas Jufka Filoteig</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/pizzateig-pastateig/buitoni-pizzateig-glutenfrei-ohne-lactose-rund-ausgewallt-25cm/p/5722124</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/klas-jufka-filoteig/p/3861388</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E224" t="n">
         <v>3.5</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>Buitoni</t>
+          <t>Klas</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>1.90/100g</t>
+          <t>0.44/100g</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
@@ -16250,7 +16250,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -16260,60 +16260,56 @@
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'pizzateig-pastateig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M224" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm 20% ab 2 Aktion 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N224" t="inlineStr">
-        <is>
-          <t>['chilled', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Klas Jufka Filoteig 2.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>6738706</t>
+          <t>5722124</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Dar-Vida extra fin Mais Taco</t>
+          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/dar-vida-extra-fin-mais-taco/p/6738706</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/pizzateig-pastateig/buitoni-pizzateig-glutenfrei-ohne-lactose-rund-ausgewallt-25cm/p/5722124</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="E225" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Buitoni</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>2.15/100g</t>
+          <t>1.90/100g</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
@@ -16323,7 +16319,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -16333,51 +16329,55 @@
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'pizzateig-pastateig']</t>
         </is>
       </c>
       <c r="M225" t="inlineStr">
         <is>
-          <t>Dar-Vida extra fin Mais Taco 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N225" t="inlineStr"/>
+          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm 20% ab 2 Aktion 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N225" t="inlineStr">
+        <is>
+          <t>['chilled', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>5722126</t>
+          <t>6738706</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei</t>
+          <t>Dar-Vida extra fin Mais Taco</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/leisi-kuchenteig-rund-ausgewallt-32cm-glutenfrei/p/5722126</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/dar-vida-extra-fin-mais-taco/p/6738706</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E226" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -16402,60 +16402,56 @@
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M226" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei 20% ab 2 Aktion 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N226" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Dar-Vida extra fin Mais Taco 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>6315330</t>
+          <t>6882168</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Old El Paso Tortilla Bowls Seasalt</t>
+          <t>Leisi Butter-Kuchenteig</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-bowls-seasalt/p/6315330</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/leisi-butter-kuchenteig/p/6882168</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E227" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>2.43/100g</t>
+          <t>1.50/100g</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
@@ -16465,7 +16461,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -16475,60 +16471,60 @@
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M227" t="inlineStr">
         <is>
-          <t>Old El Paso Tortilla Bowls Seasalt 3.65 Schweizer Franken</t>
+          <t>Leisi Butter-Kuchenteig 20% ab 2 Aktion 4.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>['gluten_free']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>6313770</t>
+          <t>5722126</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Milch Céréales</t>
+          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-ohne-schokolade/weitere-guetzli/roland-petite-pause-milch-cereales/p/6313770</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/leisi-kuchenteig-rund-ausgewallt-32cm-glutenfrei/p/5722126</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="E228" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>2.67/100g</t>
+          <t>2.15/100g</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
@@ -16538,7 +16534,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -16548,56 +16544,60 @@
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-ohne-schokolade', 'weitere-guetzli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M228" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Milch Céréales 2.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N228" t="inlineStr"/>
+          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei 20% ab 2 Aktion 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N228" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>6882168</t>
+          <t>6313770</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Leisi Butter-Kuchenteig</t>
+          <t>Roland Petite Pause Milch Céréales</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/leisi-butter-kuchenteig/p/6882168</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-ohne-schokolade/weitere-guetzli/roland-petite-pause-milch-cereales/p/6313770</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E229" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>1.50/100g</t>
+          <t>2.67/100g</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
@@ -16607,7 +16607,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -16617,60 +16617,56 @@
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-ohne-schokolade', 'weitere-guetzli']</t>
         </is>
       </c>
       <c r="M229" t="inlineStr">
         <is>
-          <t>Leisi Butter-Kuchenteig 20% ab 2 Aktion 4.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N229" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Roland Petite Pause Milch Céréales 2.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>6762461</t>
+          <t>6315330</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Bischofberger Biber Vegan</t>
+          <t>Old El Paso Tortilla Bowls Seasalt</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bischofberger-biber-vegan/p/6762461</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-bowls-seasalt/p/6315330</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E230" t="n">
         <v>4.5</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Zweifel</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>3.00/100g</t>
+          <t>2.43/100g</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
@@ -16680,7 +16676,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -16690,60 +16686,60 @@
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>Bischofberger Biber Vegan 1.80 Schweizer Franken</t>
+          <t>Old El Paso Tortilla Bowls Seasalt 3.65 Schweizer Franken</t>
         </is>
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian', 'lactose_free']</t>
+          <t>['gluten_free']</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>3861388</t>
+          <t>6762461</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Klas Jufka Filoteig</t>
+          <t>Bischofberger Biber Vegan</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/klas-jufka-filoteig/p/3861388</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bischofberger-biber-vegan/p/6762461</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E231" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Klas</t>
+          <t>Zweifel</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>0.44/100g</t>
+          <t>3.00/100g</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
@@ -16753,7 +16749,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -16763,18 +16759,22 @@
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M231" t="inlineStr">
         <is>
-          <t>Klas Jufka Filoteig 2.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N231" t="inlineStr"/>
+          <t>Bischofberger Biber Vegan 1.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N231" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -16847,7 +16847,7 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -16920,45 +16920,45 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>6575244</t>
+          <t>5804223</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Old el Paso Fajita mix Gluten Free</t>
+          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-fajita-mix-gluten-free/p/6575244</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/leisi-blaetterteig-glutenfrei-rund-ausgewallt-32cm/p/5804223</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="E234" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>5.33/100g</t>
+          <t>1.77/100g</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
@@ -16968,7 +16968,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -16978,22 +16978,22 @@
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
         </is>
       </c>
       <c r="M234" t="inlineStr">
         <is>
-          <t>Old el Paso Fajita mix Gluten Free 1.60 Schweizer Franken</t>
+          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm 20% ab 2 Aktion 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>['gluten_free']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -17060,45 +17060,45 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>5804223</t>
+          <t>4265298</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm</t>
+          <t>Naturaplan Bio Mini Haselnussrollen</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/leisi-blaetterteig-glutenfrei-rund-ausgewallt-32cm/p/5804223</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-mini-haselnussrollen/p/4265298</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="E236" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>1.77/100g</t>
+          <t>1.50/100g</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
@@ -17108,7 +17108,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -17118,60 +17118,56 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M236" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm 20% ab 2 Aktion 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N236" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Mini Haselnussrollen 3.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>4265298</t>
+          <t>6575244</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Mini Haselnussrollen</t>
+          <t>Old el Paso Fajita mix Gluten Free</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-mini-haselnussrollen/p/4265298</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-fajita-mix-gluten-free/p/6575244</t>
         </is>
       </c>
       <c r="D237" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E237" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>1.50/100g</t>
+          <t>5.33/100g</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
@@ -17181,7 +17177,7 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -17191,18 +17187,22 @@
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M237" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Mini Haselnussrollen 3.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N237" t="inlineStr"/>
+          <t>Old el Paso Fajita mix Gluten Free 1.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N237" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -17271,7 +17271,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -17340,7 +17340,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -17409,7 +17409,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -17482,7 +17482,7 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -17549,7 +17549,7 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -17618,7 +17618,7 @@
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -17687,7 +17687,7 @@
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -17756,7 +17756,7 @@
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -17829,7 +17829,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -17898,7 +17898,7 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -17967,7 +17967,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -18036,7 +18036,7 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -18105,7 +18105,7 @@
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -18174,7 +18174,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -18247,7 +18247,7 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -18316,7 +18316,7 @@
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -18385,7 +18385,7 @@
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -18454,7 +18454,7 @@
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -18523,7 +18523,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -18590,7 +18590,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -18663,45 +18663,45 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>6150312</t>
+          <t>5653528</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>St.Michel Brownies blanc Mini</t>
+          <t>Betty Bossi Tortenboden hell</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-brownies-blanc-mini/p/6150312</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/betty-bossi-tortenboden-hell/p/5653528</t>
         </is>
       </c>
       <c r="D259" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E259" t="n">
         <v>5</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>1.16/100g</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
@@ -18711,7 +18711,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -18721,56 +18721,60 @@
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
         </is>
       </c>
       <c r="M259" t="inlineStr">
         <is>
-          <t>St.Michel Brownies blanc Mini 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N259" t="inlineStr"/>
+          <t>Betty Bossi Tortenboden hell 3.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N259" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>5653528</t>
+          <t>6150312</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Betty Bossi Tortenboden hell</t>
+          <t>St.Michel Brownies blanc Mini</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/betty-bossi-tortenboden-hell/p/5653528</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-brownies-blanc-mini/p/6150312</t>
         </is>
       </c>
       <c r="D260" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E260" t="n">
         <v>5</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>1.16/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
@@ -18780,7 +18784,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -18790,22 +18794,18 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M260" t="inlineStr">
         <is>
-          <t>Betty Bossi Tortenboden hell 3.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N260" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>St.Michel Brownies blanc Mini 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -18874,7 +18874,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -18943,24 +18943,24 @@
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>7028474</t>
+          <t>6729406</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Quinoa</t>
+          <t>Roland Sport Banana Cranberry</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/le-pain-des-fleurs-bio-quinoa/p/7028474</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/roland-sport-banana-cranberry/p/6729406</t>
         </is>
       </c>
       <c r="D263" t="n">
@@ -18971,17 +18971,17 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>2.93/100g</t>
+          <t>3.56/100g</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
@@ -18991,7 +18991,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -19001,39 +19001,35 @@
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M263" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Quinoa 20% ab 2 Aktion 4.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N263" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Roland Sport Banana Cranberry 4.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>6729406</t>
+          <t>7028474</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Roland Sport Banana Cranberry</t>
+          <t>Le Pain des fleurs Bio Quinoa</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/roland-sport-banana-cranberry/p/6729406</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/le-pain-des-fleurs-bio-quinoa/p/7028474</t>
         </is>
       </c>
       <c r="D264" t="n">
@@ -19044,17 +19040,17 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Le Pain des fleurs</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>3.56/100g</t>
+          <t>2.93/100g</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
@@ -19064,7 +19060,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -19074,18 +19070,22 @@
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M264" t="inlineStr">
         <is>
-          <t>Roland Sport Banana Cranberry 4.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N264" t="inlineStr"/>
+          <t>Le Pain des fleurs Bio Quinoa 20% ab 2 Aktion 4.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N264" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -19158,7 +19158,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -19227,7 +19227,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -19298,7 +19298,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -19369,7 +19369,7 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -19438,7 +19438,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -19507,7 +19507,7 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -19576,7 +19576,7 @@
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -19645,7 +19645,7 @@
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -19718,45 +19718,45 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>6680943</t>
+          <t>4234829</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Pasquier Pancakes Choco 10 Stück</t>
+          <t>Schär Wraps glutenfrei 2x80g</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pancakes-choco-10-stueck/p/6680943</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/schaer-wraps-glutenfrei-2x80g/p/4234829</t>
         </is>
       </c>
       <c r="D274" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E274" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>1.23/100g</t>
+          <t>3.09/100g</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
@@ -19766,7 +19766,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -19776,56 +19776,60 @@
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M274" t="inlineStr">
         <is>
-          <t>Pasquier Pancakes Choco 10 Stück 4.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N274" t="inlineStr"/>
+          <t>Schär Wraps glutenfrei 2x80g 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N274" t="inlineStr">
+        <is>
+          <t>['gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>4234829</t>
+          <t>6680943</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Schär Wraps glutenfrei 2x80g</t>
+          <t>Pasquier Pancakes Choco 10 Stück</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/schaer-wraps-glutenfrei-2x80g/p/4234829</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pancakes-choco-10-stueck/p/6680943</t>
         </is>
       </c>
       <c r="D275" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="E275" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>3.09/100g</t>
+          <t>1.23/100g</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
@@ -19835,7 +19839,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -19845,22 +19849,18 @@
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M275" t="inlineStr">
         <is>
-          <t>Schär Wraps glutenfrei 2x80g 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N275" t="inlineStr">
-        <is>
-          <t>['gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Pasquier Pancakes Choco 10 Stück 4.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -19929,7 +19929,7 @@
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -19996,7 +19996,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -20063,7 +20063,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -20132,7 +20132,7 @@
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -20201,7 +20201,7 @@
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -20270,7 +20270,7 @@
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -20343,7 +20343,7 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -20410,7 +20410,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -20479,7 +20479,7 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -20548,45 +20548,43 @@
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>6579811</t>
+          <t>7038624</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Ines Rosales Süsse Tortas</t>
+          <t>Riduto Crisp Bread Rande</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/ines-rosales-suesse-tortas/p/6579811</t>
-        </is>
-      </c>
-      <c r="D286" t="n">
-        <v>6</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-rande/p/7038624</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr"/>
       <c r="E286" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>INES ROSALES</t>
+          <t>RIDUTO</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>2.56/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
@@ -20596,7 +20594,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -20606,54 +20604,56 @@
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M286" t="inlineStr">
         <is>
-          <t>Ines Rosales Süsse Tortas 4.60 Schweizer Franken</t>
+          <t>Riduto Crisp Bread Rande 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>7038624</t>
+          <t>6579811</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Rande</t>
+          <t>Ines Rosales Süsse Tortas</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-rande/p/7038624</t>
-        </is>
-      </c>
-      <c r="D287" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/ines-rosales-suesse-tortas/p/6579811</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>6</v>
+      </c>
       <c r="E287" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>RIDUTO</t>
+          <t>INES ROSALES</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>2.56/100g</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
@@ -20663,7 +20663,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -20673,56 +20673,56 @@
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M287" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Rande 2.95 Schweizer Franken</t>
+          <t>Ines Rosales Süsse Tortas 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>5803198</t>
+          <t>6857773</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Schär Guezli Orangino Soft Cake glutenfrei</t>
+          <t>Dar-Vida Choco au lait</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-guezli-orangino-soft-cake-glutenfrei/p/5803198</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/dar-vida-choco-au-lait/p/6857773</t>
         </is>
       </c>
       <c r="D288" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E288" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>1.87/100g</t>
+          <t>3.80/100g</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
@@ -20732,7 +20732,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -20742,39 +20742,35 @@
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M288" t="inlineStr">
         <is>
-          <t>Schär Guezli Orangino Soft Cake glutenfrei 2.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N288" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Dar-Vida Choco au lait 1.75 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>6857773</t>
+          <t>6635317</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Dar-Vida Choco au lait</t>
+          <t>Prix Garantie Kakao Roulade</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/dar-vida-choco-au-lait/p/6857773</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-kakao-roulade/p/6635317</t>
         </is>
       </c>
       <c r="D289" t="n">
@@ -20785,17 +20781,17 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>3.80/100g</t>
+          <t>0.65/100g</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
@@ -20805,7 +20801,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -20815,56 +20811,56 @@
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M289" t="inlineStr">
         <is>
-          <t>Dar-Vida Choco au lait 1.75 Schweizer Franken</t>
+          <t>Prix Garantie Kakao Roulade 2.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>6635317</t>
+          <t>5803198</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Prix Garantie Kakao Roulade</t>
+          <t>Schär Guezli Orangino Soft Cake glutenfrei</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-kakao-roulade/p/6635317</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-guezli-orangino-soft-cake-glutenfrei/p/5803198</t>
         </is>
       </c>
       <c r="D290" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E290" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>0.65/100g</t>
+          <t>1.87/100g</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
@@ -20874,7 +20870,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -20889,13 +20885,17 @@
       </c>
       <c r="M290" t="inlineStr">
         <is>
-          <t>Prix Garantie Kakao Roulade 2.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N290" t="inlineStr"/>
+          <t>Schär Guezli Orangino Soft Cake glutenfrei 2.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N290" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -20968,45 +20968,45 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>6967944</t>
+          <t>6338743</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>St. Michel Galettes Mou Choco Blanc</t>
+          <t>Country Cracker Honig</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-galettes-mou-choco-blanc/p/6967944</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-honig/p/6338743</t>
         </is>
       </c>
       <c r="D292" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E292" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>1.64/100g</t>
+          <t>1.58/100g</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
@@ -21016,7 +21016,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -21026,56 +21026,56 @@
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M292" t="inlineStr">
         <is>
-          <t>St. Michel Galettes Mou Choco Blanc 2.95 Schweizer Franken</t>
+          <t>Country Cracker Honig 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>6338743</t>
+          <t>6967944</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Country Cracker Honig</t>
+          <t>St. Michel Galettes Mou Choco Blanc</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-honig/p/6338743</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-galettes-mou-choco-blanc/p/6967944</t>
         </is>
       </c>
       <c r="D293" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E293" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>1.58/100g</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
@@ -21085,7 +21085,7 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -21095,18 +21095,18 @@
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M293" t="inlineStr">
         <is>
-          <t>Country Cracker Honig 3.60 Schweizer Franken</t>
+          <t>St. Michel Galettes Mou Choco Blanc 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -21175,7 +21175,7 @@
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -21248,7 +21248,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -21319,7 +21319,7 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -21388,7 +21388,7 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -21457,7 +21457,7 @@
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -21526,7 +21526,7 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -21595,7 +21595,7 @@
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -21664,7 +21664,7 @@
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -21737,7 +21737,7 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -21808,7 +21808,7 @@
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -21877,7 +21877,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -21950,7 +21950,7 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -22019,7 +22019,7 @@
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -22088,7 +22088,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -22157,7 +22157,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -22226,24 +22226,24 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>6146680</t>
+          <t>3351706</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Bischofberger Biber Herzli 6x32g</t>
+          <t>Motta Panettone</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-bischofberger-biber-herzli-6x32g/p/6146680</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/motta-panettone/p/3351706</t>
         </is>
       </c>
       <c r="D310" t="n">
@@ -22254,17 +22254,17 @@
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>Bischofberger</t>
+          <t>Motta</t>
         </is>
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>2.86/100g</t>
+          <t>3.00/100g</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
@@ -22274,7 +22274,7 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -22284,60 +22284,56 @@
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M310" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Bischofberger Biber Herzli 6x32g 5.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N310" t="inlineStr">
-        <is>
-          <t>['vegetarian']</t>
-        </is>
-      </c>
+          <t>Motta Panettone 2.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>5803251</t>
+          <t>6146680</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Schär Pausa Ciok Snack glutenfrei</t>
+          <t>Naturaplan Bio Bischofberger Biber Herzli 6x32g</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-pausa-ciok-snack-glutenfrei/p/5803251</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-bischofberger-biber-herzli-6x32g/p/6146680</t>
         </is>
       </c>
       <c r="D311" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E311" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Bischofberger</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>1.99/100g</t>
+          <t>2.86/100g</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
@@ -22347,7 +22343,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -22362,55 +22358,55 @@
       </c>
       <c r="M311" t="inlineStr">
         <is>
-          <t>Schär Pausa Ciok Snack glutenfrei 6.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Bischofberger Biber Herzli 6x32g 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N311" t="inlineStr">
         <is>
-          <t>['gluten_free']</t>
+          <t>['vegetarian']</t>
         </is>
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>3351706</t>
+          <t>5803251</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Motta Panettone</t>
+          <t>Schär Pausa Ciok Snack glutenfrei</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/motta-panettone/p/3351706</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-pausa-ciok-snack-glutenfrei/p/5803251</t>
         </is>
       </c>
       <c r="D312" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E312" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>Motta</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>3.00/100g</t>
+          <t>1.99/100g</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
@@ -22420,7 +22416,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -22430,18 +22426,22 @@
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M312" t="inlineStr">
         <is>
-          <t>Motta Panettone 2.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N312" t="inlineStr"/>
+          <t>Schär Pausa Ciok Snack glutenfrei 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N312" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -22514,32 +22514,32 @@
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>5825322</t>
+          <t>6659615</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Aprikosenrollen 3x60g</t>
+          <t>Country Cracker Karotte</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-aprikosenrollen-3x60g/p/5825322</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-karotte/p/6659615</t>
         </is>
       </c>
       <c r="D314" t="n">
+        <v>2</v>
+      </c>
+      <c r="E314" t="n">
         <v>5</v>
       </c>
-      <c r="E314" t="n">
-        <v>4</v>
-      </c>
       <c r="F314" t="inlineStr">
         <is>
           <t>Coop</t>
@@ -22547,12 +22547,12 @@
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>1.44/100g</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
@@ -22562,7 +22562,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -22572,42 +22572,42 @@
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M314" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Aprikosenrollen 3x60g 16% Aktion 2.60 Schweizer Franken statt 3.10 Schweizer Franken</t>
+          <t>Country Cracker Karotte 3.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>6659615</t>
+          <t>5825322</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Country Cracker Karotte</t>
+          <t>Naturaplan Bio Aprikosenrollen 3x60g</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-karotte/p/6659615</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-aprikosenrollen-3x60g/p/5825322</t>
         </is>
       </c>
       <c r="D315" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E315" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F315" t="inlineStr">
         <is>
@@ -22616,12 +22616,12 @@
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>1.64/100g</t>
+          <t>1.44/100g</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
@@ -22631,7 +22631,7 @@
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -22641,56 +22641,56 @@
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M315" t="inlineStr">
         <is>
-          <t>Country Cracker Karotte 3.75 Schweizer Franken</t>
+          <t>Naturaplan Bio Aprikosenrollen 3x60g 16% Aktion 2.60 Schweizer Franken statt 3.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>6637490</t>
+          <t>6729401</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Suter Pâté vaudois</t>
+          <t>Roland Sport Plus Nature</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/suter-pate-vaudois/p/6637490</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/roland-sport-plus-nature/p/6729401</t>
         </is>
       </c>
       <c r="D316" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E316" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>Suter</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>3.59/100g</t>
+          <t>3.20/100g</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
@@ -22700,7 +22700,7 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -22710,60 +22710,56 @@
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M316" t="inlineStr">
         <is>
-          <t>Suter Pâté vaudois 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N316" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Roland Sport Plus Nature 4.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>6729401</t>
+          <t>6637490</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Roland Sport Plus Nature</t>
+          <t>Suter Pâté vaudois</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/roland-sport-plus-nature/p/6729401</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/suter-pate-vaudois/p/6637490</t>
         </is>
       </c>
       <c r="D317" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E317" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Suter</t>
         </is>
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>3.20/100g</t>
+          <t>3.59/100g</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
@@ -22773,7 +22769,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -22783,18 +22779,22 @@
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M317" t="inlineStr">
         <is>
-          <t>Roland Sport Plus Nature 4.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N317" t="inlineStr"/>
+          <t>Suter Pâté vaudois 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N317" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -22863,7 +22863,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -22936,43 +22936,45 @@
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>6783372</t>
+          <t>6472912</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Old el Paso BBQ Pocket Kit</t>
+          <t>Naturaplan Bio Appenzeller Bärli Biber</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-bbq-pocket-kit/p/6783372</t>
-        </is>
-      </c>
-      <c r="D320" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-baerli-biber/p/6472912</t>
+        </is>
+      </c>
+      <c r="D320" t="n">
+        <v>1</v>
+      </c>
       <c r="E320" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Bischofberger</t>
         </is>
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>2.03/100g</t>
+          <t>2.58/100g</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
@@ -22982,7 +22984,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -22992,56 +22994,58 @@
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M320" t="inlineStr">
         <is>
-          <t>Old el Paso BBQ Pocket Kit 7.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N320" t="inlineStr"/>
+          <t>Naturaplan Bio Appenzeller Bärli Biber 1.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N320" t="inlineStr">
+        <is>
+          <t>['vegetarian']</t>
+        </is>
+      </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>6472912</t>
+          <t>6783372</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Bärli Biber</t>
+          <t>Old el Paso BBQ Pocket Kit</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-baerli-biber/p/6472912</t>
-        </is>
-      </c>
-      <c r="D321" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-bbq-pocket-kit/p/6783372</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr"/>
       <c r="E321" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>Bischofberger</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>2.58/100g</t>
+          <t>2.03/100g</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
@@ -23051,7 +23055,7 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -23061,58 +23065,56 @@
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M321" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Bärli Biber 1.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N321" t="inlineStr">
-        <is>
-          <t>['vegetarian']</t>
-        </is>
-      </c>
+          <t>Old el Paso BBQ Pocket Kit 7.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>6981861</t>
+          <t>6877281</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Sapori d'Italia Panettini Croccantini</t>
+          <t>Nussweggli</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/sapori-d-italia-panettini-croccantini/p/6981861</t>
-        </is>
-      </c>
-      <c r="D322" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/nussweggli/p/6877281</t>
+        </is>
+      </c>
+      <c r="D322" t="n">
+        <v>6</v>
+      </c>
       <c r="E322" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>Sapori d'Italia</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>1.47/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
@@ -23122,7 +23124,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -23132,56 +23134,54 @@
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M322" t="inlineStr">
         <is>
-          <t>Sapori d'Italia Panettini Croccantini 3.30 Schweizer Franken</t>
+          <t>Nussweggli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N322" t="inlineStr"/>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>6877281</t>
+          <t>6981861</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Nussweggli</t>
+          <t>Sapori d'Italia Panettini Croccantini</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/nussweggli/p/6877281</t>
-        </is>
-      </c>
-      <c r="D323" t="n">
-        <v>6</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/sapori-d-italia-panettini-croccantini/p/6981861</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr"/>
       <c r="E323" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Sapori d'Italia</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>1.47/100g</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
@@ -23191,7 +23191,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -23201,18 +23201,18 @@
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M323" t="inlineStr">
         <is>
-          <t>Nussweggli 4.95 Schweizer Franken</t>
+          <t>Sapori d'Italia Panettini Croccantini 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -23281,7 +23281,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -23350,7 +23350,7 @@
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -23419,7 +23419,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -23488,7 +23488,7 @@
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -23557,7 +23557,7 @@
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -23630,7 +23630,7 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -23699,7 +23699,7 @@
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -23766,7 +23766,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
@@ -23839,7 +23839,7 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-02-09 12:57:29</t>
+          <t>2023-02-09 20:49:26</t>
         </is>
       </c>
     </row>
